--- a/DS_10Ly4 - Copy.xlsx
+++ b/DS_10Ly4 - Copy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\Ly_4_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TRAN THANH CONG\Dropbox\PythonAI\project_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D38DCF71-C0DB-4B6B-86E0-2D4FAD6553FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92A49425-B0AD-432B-A8FA-FF390D1A34F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3139B793-E1FF-4D60-89A4-8357C853B3FD}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="101">
   <si>
     <t>STT</t>
   </si>
@@ -39,12 +39,6 @@
     <t>Dương Bình</t>
   </si>
   <si>
-    <t>An</t>
-  </si>
-  <si>
-    <t>Lâm Thúy</t>
-  </si>
-  <si>
     <t>Nguyễn Thái</t>
   </si>
   <si>
@@ -60,48 +54,24 @@
     <t>Bảo</t>
   </si>
   <si>
-    <t xml:space="preserve">Christyna </t>
-  </si>
-  <si>
-    <t>Dũng</t>
-  </si>
-  <si>
-    <t>Hải</t>
-  </si>
-  <si>
     <t>Hiền</t>
   </si>
   <si>
     <t>Nguyễn Đức</t>
   </si>
   <si>
-    <t>Hiếu</t>
-  </si>
-  <si>
-    <t>Nguyễn Bá</t>
-  </si>
-  <si>
     <t>Huy</t>
   </si>
   <si>
     <t>Đỗ Quang</t>
   </si>
   <si>
-    <t>Khải</t>
-  </si>
-  <si>
-    <t>Phạm Luân</t>
-  </si>
-  <si>
     <t>Khang</t>
   </si>
   <si>
     <t>Nguyễn Minh</t>
   </si>
   <si>
-    <t>Khôi</t>
-  </si>
-  <si>
     <t>Dương Huệ</t>
   </si>
   <si>
@@ -111,78 +81,18 @@
     <t>Minh</t>
   </si>
   <si>
-    <t>Tất Huy</t>
-  </si>
-  <si>
-    <t>Đặng Thanh Lan</t>
-  </si>
-  <si>
-    <t>Ngọc</t>
-  </si>
-  <si>
     <t>Trịnh Cao</t>
   </si>
   <si>
-    <t>Phát</t>
-  </si>
-  <si>
     <t>Nguyễn Viết</t>
   </si>
   <si>
-    <t>Phú</t>
-  </si>
-  <si>
     <t>Nguyễn Thy</t>
   </si>
   <si>
-    <t>Phúc</t>
-  </si>
-  <si>
-    <t>Quân</t>
-  </si>
-  <si>
     <t>Thái</t>
   </si>
   <si>
-    <t>Thành</t>
-  </si>
-  <si>
-    <t>Nguyễn Phước</t>
-  </si>
-  <si>
-    <t>Thọ</t>
-  </si>
-  <si>
-    <t>Thuần</t>
-  </si>
-  <si>
-    <t>Đặng Anh</t>
-  </si>
-  <si>
-    <t>Thư</t>
-  </si>
-  <si>
-    <t>Trần Hà Anh</t>
-  </si>
-  <si>
-    <t>Lê Hoàng Cát</t>
-  </si>
-  <si>
-    <t>Tiên</t>
-  </si>
-  <si>
-    <t>Trí</t>
-  </si>
-  <si>
-    <t>Thái Nhật</t>
-  </si>
-  <si>
-    <t>Trung</t>
-  </si>
-  <si>
-    <t>Tú</t>
-  </si>
-  <si>
     <t>Điểm cộng</t>
   </si>
   <si>
@@ -258,33 +168,15 @@
     <t>Họ và tên</t>
   </si>
   <si>
-    <t>Đặng Ngọc Thiên Kim</t>
-  </si>
-  <si>
     <t>Nguyễn Trí</t>
   </si>
   <si>
-    <t>Nguyễn Hữu Nam</t>
-  </si>
-  <si>
-    <t>Đặng Thanh Xuân</t>
-  </si>
-  <si>
-    <t>Nguyễn Lê Minh</t>
-  </si>
-  <si>
     <t>Nguyễn Xuân</t>
   </si>
   <si>
     <t>Lê Võ Minh</t>
   </si>
   <si>
-    <t>Võ Huỳnh Quốc</t>
-  </si>
-  <si>
-    <t>Mai Hồ Bá</t>
-  </si>
-  <si>
     <t>Phạm Lê Minh</t>
   </si>
   <si>
@@ -346,6 +238,96 @@
   </si>
   <si>
     <t>hhhe</t>
+  </si>
+  <si>
+    <t>Tâm</t>
+  </si>
+  <si>
+    <t>Lâm</t>
+  </si>
+  <si>
+    <t>Tuấn</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Nguyễn</t>
+  </si>
+  <si>
+    <t>Tuân</t>
+  </si>
+  <si>
+    <t>Đặng</t>
+  </si>
+  <si>
+    <t>Tín</t>
+  </si>
+  <si>
+    <t>Tài</t>
+  </si>
+  <si>
+    <t>Nguyễn Nam</t>
+  </si>
+  <si>
+    <t>Phạm</t>
+  </si>
+  <si>
+    <t>Kiệt</t>
+  </si>
+  <si>
+    <t>Đào</t>
+  </si>
+  <si>
+    <t>Đặng Quốc</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Trường</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Võ Huỳnh</t>
+  </si>
+  <si>
+    <t>Linh</t>
+  </si>
+  <si>
+    <t>Nguyễn Gia</t>
+  </si>
+  <si>
+    <t>Kỳ</t>
+  </si>
+  <si>
+    <t>Gia</t>
+  </si>
+  <si>
+    <t>Yên</t>
+  </si>
+  <si>
+    <t>Trần</t>
+  </si>
+  <si>
+    <t>Thiên</t>
+  </si>
+  <si>
+    <t>Nhật</t>
+  </si>
+  <si>
+    <t>Thái Thiên</t>
+  </si>
+  <si>
+    <t>Hoàng</t>
+  </si>
+  <si>
+    <t>Hiên</t>
+  </si>
+  <si>
+    <t>Ngô</t>
   </si>
 </sst>
 </file>
@@ -864,8 +846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8769553C-9D4C-4175-BAAF-2D7B4B8326FF}">
   <dimension ref="A1:T35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -887,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -896,25 +878,25 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="I1" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="K1" s="1" t="s">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3"/>
       <c r="M1" s="1"/>
@@ -932,28 +914,28 @@
       </c>
       <c r="B2" s="10" t="str">
         <f t="shared" ref="B2:B34" si="0">C2&amp;" "&amp;D2</f>
-        <v>Dương Bình An</v>
+        <v>Dương Bình Tâm</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="E2" s="10">
         <v>7.95</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="H2" s="20">
         <v>3</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>105</v>
+        <v>69</v>
       </c>
       <c r="L2" s="8"/>
       <c r="M2" s="8"/>
@@ -971,29 +953,29 @@
       </c>
       <c r="B3" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Lâm Thúy An</v>
+        <v>Lâm Ngô</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>4</v>
+        <v>100</v>
       </c>
       <c r="E3" s="10">
         <v>7.2500000000000009</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="G3" s="25" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H3" s="20">
         <v>2</v>
       </c>
       <c r="J3" s="7"/>
       <c r="K3" s="8" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="L3" s="8"/>
       <c r="M3" s="8"/>
@@ -1011,29 +993,29 @@
       </c>
       <c r="B4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Thái An</v>
+        <v>Nguyễn Thái Tuấn</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>4</v>
+        <v>73</v>
       </c>
       <c r="E4" s="10">
         <v>8.25</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="G4" s="25" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H4" s="20">
         <v>1</v>
       </c>
       <c r="J4" s="7"/>
       <c r="K4" s="8" t="s">
-        <v>106</v>
+        <v>70</v>
       </c>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
@@ -1051,29 +1033,29 @@
       </c>
       <c r="B5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Ngô Quỳnh Anh</v>
+        <v>Ngô Quỳnh Nam</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="E5" s="10">
         <v>7.5500000000000007</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H5" s="20">
         <v>2</v>
       </c>
       <c r="J5" s="7"/>
       <c r="K5" s="8" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -1091,29 +1073,29 @@
       </c>
       <c r="B6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Lê Minh Anh</v>
+        <v>Nguyễn Anh</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E6" s="10">
         <v>10</v>
       </c>
       <c r="F6" s="25" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H6" s="20">
         <v>1</v>
       </c>
       <c r="J6" s="7"/>
       <c r="K6" s="8" t="s">
-        <v>94</v>
+        <v>58</v>
       </c>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
@@ -1131,29 +1113,29 @@
       </c>
       <c r="B7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Trần Gia Bảo</v>
+        <v>Trần Gia Tuân</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="E7" s="10">
         <v>8.75</v>
       </c>
       <c r="F7" s="25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H7" s="20">
         <v>3</v>
       </c>
       <c r="J7" s="7"/>
       <c r="K7" s="8" t="s">
-        <v>95</v>
+        <v>59</v>
       </c>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
@@ -1171,29 +1153,29 @@
       </c>
       <c r="B8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">Đặng Ngọc Thiên Kim Christyna </v>
+        <v>Đặng Tín</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>77</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="E8" s="10">
         <v>6.0500000000000007</v>
       </c>
       <c r="F8" s="25" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="H8" s="20">
         <v>2</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="8" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="L8" s="8"/>
       <c r="M8" s="8"/>
@@ -1211,29 +1193,29 @@
       </c>
       <c r="B9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Trí Dũng</v>
+        <v>Nguyễn Trí Tài</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>78</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>12</v>
+        <v>79</v>
       </c>
       <c r="E9" s="10">
         <v>10</v>
       </c>
       <c r="F9" s="25" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="H9" s="20">
         <v>1</v>
       </c>
       <c r="J9" s="7"/>
       <c r="K9" s="8" t="s">
-        <v>97</v>
+        <v>61</v>
       </c>
       <c r="L9" s="8"/>
       <c r="M9" s="8"/>
@@ -1251,10 +1233,10 @@
       </c>
       <c r="B10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Hữu Nam Hải</v>
+        <v>Nguyễn Nam Khang</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>13</v>
@@ -1263,15 +1245,15 @@
         <v>8.6499999999999986</v>
       </c>
       <c r="F10" s="25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H10" s="21"/>
       <c r="J10" s="7"/>
       <c r="K10" s="8" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="L10" s="8"/>
       <c r="M10" s="8"/>
@@ -1289,27 +1271,27 @@
       </c>
       <c r="B11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Đặng Thanh Xuân Hiền</v>
+        <v>Đặng Bảo</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11" s="10">
         <v>9.35</v>
       </c>
       <c r="F11" s="25" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H11" s="22"/>
       <c r="J11" s="7"/>
       <c r="K11" s="8" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
@@ -1327,29 +1309,29 @@
       </c>
       <c r="B12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Đức Hiếu</v>
+        <v>Nguyễn Đức Bảo</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="E12" s="10">
         <v>7.9500000000000011</v>
       </c>
       <c r="F12" s="25" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="H12" s="22">
         <v>1</v>
       </c>
       <c r="J12" s="7"/>
       <c r="K12" s="8" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -1367,29 +1349,29 @@
       </c>
       <c r="B13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Bá Huy</v>
+        <v>Nguyễn Huy</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="E13" s="10">
         <v>8.85</v>
       </c>
       <c r="F13" s="25" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H13" s="22">
         <v>2</v>
       </c>
       <c r="J13" s="7"/>
       <c r="K13" s="8" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="L13" s="8"/>
       <c r="M13" s="8"/>
@@ -1407,27 +1389,27 @@
       </c>
       <c r="B14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Đỗ Quang Khải</v>
+        <v>Đỗ Quang Minh</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="10">
         <v>8.5500000000000007</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="H14" s="21"/>
       <c r="J14" s="7"/>
       <c r="K14" s="8" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="L14" s="8"/>
       <c r="M14" s="8"/>
@@ -1445,13 +1427,13 @@
       </c>
       <c r="B15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Phạm Luân Khang</v>
+        <v>Phạm Tín</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="26"/>
@@ -1459,7 +1441,7 @@
       <c r="H15" s="22"/>
       <c r="J15" s="14"/>
       <c r="K15" s="15" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="L15" s="15"/>
       <c r="M15" s="15"/>
@@ -1477,27 +1459,27 @@
       </c>
       <c r="B16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Minh Khôi</v>
+        <v>Nguyễn Minh Kiệt</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="E16" s="10">
         <v>8.75</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H16" s="21"/>
       <c r="J16" s="7"/>
       <c r="K16" s="8" t="s">
-        <v>104</v>
+        <v>68</v>
       </c>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
@@ -1518,26 +1500,26 @@
         <v>Dương Huệ Mẫn</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E17" s="10">
         <v>7.75</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G17" s="25" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="H17" s="22">
         <v>1</v>
       </c>
       <c r="J17" s="7"/>
       <c r="K17" s="8" t="s">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="L17" s="8"/>
       <c r="M17" s="8"/>
@@ -1555,22 +1537,22 @@
       </c>
       <c r="B18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Xuân Minh</v>
+        <v>Nguyễn Xuân Hiền</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="E18" s="10">
         <v>5.9500000000000011</v>
       </c>
       <c r="F18" s="25" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H18" s="20">
         <v>1</v>
@@ -1595,22 +1577,22 @@
       </c>
       <c r="B19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Tất Huy Minh</v>
+        <v>Đào Minh</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E19" s="10">
         <v>8.9499999999999993</v>
       </c>
       <c r="F19" s="25" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="H19" s="22">
         <v>1</v>
@@ -1635,22 +1617,22 @@
       </c>
       <c r="B20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Đặng Thanh Lan Ngọc</v>
+        <v>Đặng Quốc Tuấn</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="E20" s="10">
         <v>7.0500000000000007</v>
       </c>
       <c r="F20" s="25" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="H20" s="19"/>
       <c r="J20" s="7"/>
@@ -1673,22 +1655,22 @@
       </c>
       <c r="B21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Trịnh Cao Phát</v>
+        <v>Trịnh Cao Thắng</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="E21" s="10">
         <v>9.0500000000000007</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="G21" s="28" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="H21" s="18"/>
       <c r="J21" s="7"/>
@@ -1711,13 +1693,13 @@
       </c>
       <c r="B22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Viết Phú</v>
+        <v>Nguyễn Viết Trường</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="E22" s="10">
         <v>9.0500000000000007</v>
@@ -1751,13 +1733,13 @@
       </c>
       <c r="B23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Thy Phúc</v>
+        <v>Nguyễn Thy Anh</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="E23" s="10">
         <v>7.3500000000000005</v>
@@ -1791,13 +1773,13 @@
       </c>
       <c r="B24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Lê Võ Minh Quân</v>
+        <v>Lê Võ Minh Đạt</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>83</v>
+        <v>49</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="E24" s="10">
         <v>9.4499999999999993</v>
@@ -1831,13 +1813,13 @@
       </c>
       <c r="B25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Võ Huỳnh Quốc Thái</v>
+        <v>Võ Huỳnh Minh</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="E25" s="10">
         <v>9.75</v>
@@ -1869,13 +1851,13 @@
       </c>
       <c r="B26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Phước Thành</v>
+        <v>Nguyễn Linh</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="E26" s="10">
         <v>8.5499999999999989</v>
@@ -1909,13 +1891,13 @@
       </c>
       <c r="B27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Nguyễn Phước Thọ</v>
+        <v>Nguyễn Gia Kỳ</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>41</v>
+        <v>91</v>
       </c>
       <c r="E27" s="10">
         <v>8.5499999999999989</v>
@@ -1947,13 +1929,13 @@
       </c>
       <c r="B28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Mai Hồ Bá Thuần</v>
+        <v>Lâm Gia</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E28" s="10">
         <v>7.1500000000000012</v>
@@ -1985,13 +1967,13 @@
       </c>
       <c r="B29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Đặng Anh Thư</v>
+        <v>Đặng Yên</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="E29" s="10">
         <v>9.3499999999999979</v>
@@ -2025,13 +2007,13 @@
       </c>
       <c r="B30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Trần Hà Anh Thư</v>
+        <v>Trần Thiên</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>44</v>
+        <v>95</v>
       </c>
       <c r="E30" s="10">
         <v>8.25</v>
@@ -2063,13 +2045,13 @@
       </c>
       <c r="B31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Lê Hoàng Cát Tiên</v>
+        <v>Lê Hoàng Thái</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="E31" s="10">
         <v>6.8500000000000005</v>
@@ -2101,13 +2083,13 @@
       </c>
       <c r="B32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Phạm Lê Minh Trí</v>
+        <v>Phạm Lê Minh Nhật</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>86</v>
+        <v>50</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="E32" s="10">
         <v>10</v>
@@ -2141,13 +2123,13 @@
       </c>
       <c r="B33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Thái Nhật Trung</v>
+        <v>Thái Thiên Hoàng</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="E33" s="10">
         <v>7.1499999999999995</v>
@@ -2179,13 +2161,13 @@
       </c>
       <c r="B34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>Lê Hoàng Tú</v>
+        <v>Lê Hoàng Hiên</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="E34" s="10">
         <v>9.35</v>
